--- a/tutorial/region/region.xlsx
+++ b/tutorial/region/region.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgarijo\Documents\GitHub\t2wml\tutorial\region\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="00_region" sheetId="1" r:id="rId1"/>
@@ -21,12 +26,12 @@
     <sheet name="09_region_exercise" sheetId="12" r:id="rId12"/>
     <sheet name="09_region_solution" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="35">
   <si>
     <t>dataset</t>
   </si>
@@ -136,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +179,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -220,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,9 +265,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,6 +300,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,14 +476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -490,7 +505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -504,22 +519,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -533,7 +548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -547,7 +562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -558,7 +573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -575,14 +590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -607,7 +622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -624,32 +639,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -666,7 +681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -683,7 +698,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -697,7 +712,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -711,7 +726,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -725,7 +740,7 @@
         <v>123011</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -739,7 +754,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -753,7 +768,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -767,7 +782,7 @@
         <v>123125</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -781,7 +796,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -795,7 +810,7 @@
         <v>641254</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -815,14 +830,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -847,7 +862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -864,22 +879,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -899,7 +914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -919,7 +934,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -936,7 +951,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -953,7 +968,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -970,7 +985,7 @@
         <v>123011</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -987,7 +1002,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1019,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1021,7 +1036,7 @@
         <v>123125</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1044,14 +1059,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1076,7 +1093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1093,22 +1110,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1159,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1156,7 +1173,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -1170,7 +1187,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -1184,7 +1201,7 @@
         <v>123011</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1198,7 +1215,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1212,7 +1229,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1222,11 +1239,11 @@
       <c r="D14">
         <v>15</v>
       </c>
-      <c r="E14">
-        <v>123125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1246,14 +1263,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1278,7 +1297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1295,22 +1314,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1344,7 +1363,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1358,7 +1377,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1391,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -1386,7 +1405,7 @@
         <v>123011</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1400,7 +1419,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1414,7 +1433,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1424,11 +1443,11 @@
       <c r="D14">
         <v>15</v>
       </c>
-      <c r="E14">
-        <v>123125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1448,14 +1467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1491,22 +1510,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1520,7 +1539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1534,7 +1553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1545,7 +1564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -1556,7 +1575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -1567,7 +1586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1578,7 +1597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1589,7 +1608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1600,7 +1619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1617,14 +1636,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +1668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1666,22 +1685,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1698,7 +1717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1734,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1729,7 +1748,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -1743,7 +1762,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -1757,7 +1776,7 @@
         <v>123011</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1771,7 +1790,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1785,7 +1804,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1799,7 +1818,7 @@
         <v>123125</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1819,14 +1838,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1851,7 +1870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1868,32 +1887,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1910,7 +1929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1927,7 +1946,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -1941,7 +1960,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -1955,7 +1974,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1969,7 +1988,7 @@
         <v>123011</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -1983,7 +2002,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1997,7 +2016,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -2011,7 +2030,7 @@
         <v>123125</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -2025,7 +2044,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -2036,14 +2055,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2051,7 +2070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2068,7 +2087,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2085,32 +2104,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2127,7 +2146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2144,7 +2163,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -2158,7 +2177,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -2172,7 +2191,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -2186,7 +2205,7 @@
         <v>123011</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -2200,7 +2219,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -2214,7 +2233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -2228,7 +2247,7 @@
         <v>123125</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -2242,7 +2261,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -2253,14 +2272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2268,7 +2287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2285,7 +2304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2302,32 +2321,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2344,7 +2363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2361,7 +2380,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -2375,7 +2394,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -2389,7 +2408,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -2403,7 +2422,7 @@
         <v>123011</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -2417,7 +2436,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -2431,7 +2450,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -2445,7 +2464,7 @@
         <v>123125</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -2459,7 +2478,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -2473,7 +2492,7 @@
         <v>641254</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -2493,14 +2512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2508,7 +2527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2525,7 +2544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2542,22 +2561,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2577,7 +2596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2597,7 +2616,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -2614,7 +2633,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -2631,7 +2650,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -2648,7 +2667,7 @@
         <v>123011</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -2665,7 +2684,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -2682,7 +2701,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -2699,7 +2718,7 @@
         <v>123125</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -2722,14 +2741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2737,7 +2756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2754,7 +2773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2771,22 +2790,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2803,7 +2822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2820,7 +2839,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -2834,7 +2853,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -2848,7 +2867,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -2862,7 +2881,7 @@
         <v>123011</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -2876,7 +2895,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -2890,7 +2909,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -2904,7 +2923,7 @@
         <v>123125</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -2924,14 +2943,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2939,7 +2958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2956,7 +2975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2973,22 +2992,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3005,7 +3024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3022,7 +3041,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -3036,7 +3055,7 @@
         <v>123120</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -3050,7 +3069,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -3064,7 +3083,7 @@
         <v>123011</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -3078,7 +3097,7 @@
         <v>123123</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -3092,7 +3111,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -3106,7 +3125,7 @@
         <v>123125</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
